--- a/Calculate-Trip-Cost/ExcelData/Inputread.xlsx
+++ b/Calculate-Trip-Cost/ExcelData/Inputread.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA3F08E9-2328-4689-A7C2-A2CA16F4982A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2448" windowWidth="12804" windowHeight="5352"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -46,12 +47,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -66,10 +73,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -79,6 +87,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -127,7 +138,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -160,9 +171,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -195,6 +223,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -370,33 +415,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>4</v>
       </c>
@@ -404,37 +449,40 @@
         <v>4</v>
       </c>
       <c r="C2" s="1">
-        <v>44180</v>
+        <v>44910</v>
       </c>
       <c r="D2" s="1">
-        <v>44185</v>
+        <v>44915</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>